--- a/categories/it1/bug_topwords.xlsx
+++ b/categories/it1/bug_topwords.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">download</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t xml:space="preserve">fix</t>
   </si>
@@ -31,12 +28,12 @@
     <t xml:space="preserve">lose</t>
   </si>
   <si>
+    <t xml:space="preserve">account</t>
+  </si>
+  <si>
     <t xml:space="preserve">delete</t>
   </si>
   <si>
-    <t xml:space="preserve">account</t>
-  </si>
-  <si>
     <t xml:space="preserve">space</t>
   </si>
   <si>
@@ -52,7 +49,7 @@
     <t xml:space="preserve">bug</t>
   </si>
   <si>
-    <t xml:space="preserve">lot</t>
+    <t xml:space="preserve">ca</t>
   </si>
   <si>
     <t xml:space="preserve">data</t>
@@ -67,28 +64,199 @@
     <t xml:space="preserve">progress</t>
   </si>
   <si>
-    <t xml:space="preserve">alot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glitch</t>
+    <t xml:space="preserve">game crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lose trophy</t>
   </si>
   <si>
     <t xml:space="preserve">sync</t>
   </si>
   <si>
-    <t xml:space="preserve">long</t>
+    <t xml:space="preserve">fix bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old account</t>
   </si>
   <si>
     <t xml:space="preserve">stupid</t>
   </si>
   <si>
-    <t xml:space="preserve">device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log</t>
+    <t xml:space="preserve">sync data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game lag</t>
   </si>
   <si>
     <t xml:space="preserve">storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plz fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">space phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anymore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lot space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pls fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">restart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">play friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lose account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">space update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trophy lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lose progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download say</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix lag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laggy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bug fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crash lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crashing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">problem game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samsung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lag game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horrible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">way space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hour download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lose lose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crash game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lose lot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lose stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waste space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bug game</t>
   </si>
 </sst>
 </file>
@@ -205,47 +373,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.9392712550607"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>292.114695340502</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146.953405017921</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>146.953405017921</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144.26523297491</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>144.26523297491</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142.47311827957</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -253,111 +422,111 @@
         <v>142.47311827957</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>142.47311827957</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>112.903225806452</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>112.903225806452</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104.838709677419</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>104.838709677419</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103.046594982079</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>103.046594982079</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90.5017921146953</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>90.5017921146953</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77.0609318996416</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>77.0609318996416</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71.6845878136201</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>65.4121863799283</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55.5555555555556</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>55.5555555555556</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46.594982078853</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>46.594982078853</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>38.5304659498208</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>38.5304659498208</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30.4659498207885</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>30.4659498207885</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27.7777777777778</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>25.9856630824373</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25.089605734767</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>22.4014336917563</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25.089605734767</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -365,7 +534,7 @@
         <v>22.4014336917563</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -373,36 +542,484 @@
         <v>20.6093189964158</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>19.7132616487455</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20.6093189964158</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>18.8172043010753</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19.7132616487455</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>17.921146953405</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17.0250896057348</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>16.1290322580645</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>16.1290322580645</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>16.1290322580645</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>14.336917562724</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>13.4408602150538</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>12.5448028673835</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>11.6487455197133</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>11.6487455197133</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>10.752688172043</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>10.752688172043</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>10.752688172043</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>9.85663082437276</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>9.85663082437276</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>8.96057347670251</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>8.96057347670251</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>8.06451612903226</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>8.06451612903226</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>8.06451612903226</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>8.06451612903226</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>8.06451612903226</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>8.06451612903226</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>8.06451612903226</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>7.16845878136201</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>7.16845878136201</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>6.27240143369176</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>6.27240143369176</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>6.27240143369176</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>6.27240143369176</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>6.27240143369176</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>5.37634408602151</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>5.37634408602151</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>5.37634408602151</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>5.37634408602151</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>5.37634408602151</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>5.37634408602151</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>5.37634408602151</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>5.37634408602151</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>5.37634408602151</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>5.37634408602151</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>5.37634408602151</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>5.37634408602151</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>5.37634408602151</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>4.48028673835125</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>4.48028673835125</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>4.48028673835125</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>4.48028673835125</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>4.48028673835125</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>4.48028673835125</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>4.48028673835125</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>4.48028673835125</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>4.48028673835125</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="0" t="n">
+        <v>4.48028673835125</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>4.48028673835125</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>4.48028673835125</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>4.48028673835125</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>4.48028673835125</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>3.584229390681</v>
       </c>
     </row>
   </sheetData>
